--- a/yulei_Java_demo/com.webntel/src/Object_Repository/CheckPointsList.xlsx
+++ b/yulei_Java_demo/com.webntel/src/Object_Repository/CheckPointsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="2781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="2785">
   <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9954,6 +9954,22 @@
   </si>
   <si>
     <t>Please select the LFACS address that matches theaddress the customer provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM_OK_for_report_Queued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM_Your_report_has_been_queued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your report has been queued.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10356,15 +10372,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B1476"/>
+  <dimension ref="A1:B1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1470" workbookViewId="0">
+      <selection activeCell="B1482" sqref="B1482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="68.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="61.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="71.625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -10697,7 +10713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="40.5">
       <c r="A42" s="3" t="s">
         <v>1316</v>
       </c>
@@ -10705,7 +10721,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="40.5">
       <c r="A43" s="3" t="s">
         <v>1317</v>
       </c>
@@ -10713,7 +10729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="40.5">
       <c r="A44" s="3" t="s">
         <v>1318</v>
       </c>
@@ -10857,7 +10873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="40.5">
       <c r="A62" s="3" t="s">
         <v>1334</v>
       </c>
@@ -10929,7 +10945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="81">
+    <row r="71" spans="1:2" ht="101.25">
       <c r="A71" s="3" t="s">
         <v>1343</v>
       </c>
@@ -10961,7 +10977,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="60.75">
+    <row r="75" spans="1:2" ht="81">
       <c r="A75" s="3" t="s">
         <v>1347</v>
       </c>
@@ -10985,7 +11001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="81">
+    <row r="78" spans="1:2" ht="101.25">
       <c r="A78" s="3" t="s">
         <v>1350</v>
       </c>
@@ -11049,7 +11065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="40.5">
       <c r="A86" s="3" t="s">
         <v>1357</v>
       </c>
@@ -11209,7 +11225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="40.5">
       <c r="A106" s="3" t="s">
         <v>1377</v>
       </c>
@@ -11297,7 +11313,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="40.5">
+    <row r="117" spans="1:2" ht="60.75">
       <c r="A117" s="3" t="s">
         <v>1388</v>
       </c>
@@ -11305,7 +11321,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="40.5">
+    <row r="118" spans="1:2" ht="60.75">
       <c r="A118" s="3" t="s">
         <v>1389</v>
       </c>
@@ -11433,7 +11449,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" ht="40.5">
       <c r="A134" s="3" t="s">
         <v>1405</v>
       </c>
@@ -11497,7 +11513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" ht="40.5">
       <c r="A142" s="3" t="s">
         <v>1413</v>
       </c>
@@ -11505,7 +11521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" ht="40.5">
       <c r="A143" s="3" t="s">
         <v>1414</v>
       </c>
@@ -11521,7 +11537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" ht="40.5">
       <c r="A145" s="3" t="s">
         <v>1416</v>
       </c>
@@ -11545,7 +11561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" ht="40.5">
       <c r="A148" s="3" t="s">
         <v>1419</v>
       </c>
@@ -11617,7 +11633,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" ht="40.5">
       <c r="A157" s="3" t="s">
         <v>1428</v>
       </c>
@@ -11649,7 +11665,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" ht="40.5">
       <c r="A161" s="3" t="s">
         <v>1432</v>
       </c>
@@ -11705,7 +11721,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="40.5">
+    <row r="168" spans="1:2" ht="60.75">
       <c r="A168" s="3" t="s">
         <v>1439</v>
       </c>
@@ -11769,7 +11785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="40.5">
+    <row r="176" spans="1:2" ht="60.75">
       <c r="A176" s="3" t="s">
         <v>1447</v>
       </c>
@@ -11777,7 +11793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" ht="40.5">
       <c r="A177" s="3" t="s">
         <v>1448</v>
       </c>
@@ -11793,7 +11809,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" ht="40.5">
       <c r="A179" s="3" t="s">
         <v>1450</v>
       </c>
@@ -11857,7 +11873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" ht="40.5">
       <c r="A187" s="3" t="s">
         <v>1458</v>
       </c>
@@ -11881,7 +11897,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" ht="40.5">
       <c r="A190" s="3" t="s">
         <v>1461</v>
       </c>
@@ -11905,7 +11921,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="40.5">
+    <row r="193" spans="1:2" ht="60.75">
       <c r="A193" s="3" t="s">
         <v>1464</v>
       </c>
@@ -11929,7 +11945,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" ht="40.5">
       <c r="A196" s="3" t="s">
         <v>1467</v>
       </c>
@@ -11937,7 +11953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="40.5">
+    <row r="197" spans="1:2" ht="60.75">
       <c r="A197" s="3" t="s">
         <v>1468</v>
       </c>
@@ -12017,7 +12033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="40.5">
+    <row r="207" spans="1:2" ht="60.75">
       <c r="A207" s="3" t="s">
         <v>1478</v>
       </c>
@@ -12145,7 +12161,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" ht="40.5">
       <c r="A223" s="3" t="s">
         <v>1494</v>
       </c>
@@ -12233,7 +12249,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" ht="40.5">
       <c r="A234" s="3" t="s">
         <v>1505</v>
       </c>
@@ -12567,7 +12583,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="40.5">
+    <row r="278" spans="1:2" ht="60.75">
       <c r="A278" s="3" t="s">
         <v>1549</v>
       </c>
@@ -12833,7 +12849,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" ht="40.5">
       <c r="A312" s="3" t="s">
         <v>1583</v>
       </c>
@@ -12841,7 +12857,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" ht="40.5">
       <c r="A313" s="3" t="s">
         <v>1584</v>
       </c>
@@ -12977,7 +12993,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" ht="40.5">
       <c r="A330" s="3" t="s">
         <v>1601</v>
       </c>
@@ -13001,7 +13017,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" ht="40.5">
       <c r="A333" s="3" t="s">
         <v>1604</v>
       </c>
@@ -13033,7 +13049,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" ht="40.5">
       <c r="A337" s="3" t="s">
         <v>1608</v>
       </c>
@@ -13105,7 +13121,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" ht="40.5">
       <c r="A346" s="3" t="s">
         <v>1617</v>
       </c>
@@ -13409,7 +13425,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" ht="40.5">
       <c r="A384" s="3" t="s">
         <v>1655</v>
       </c>
@@ -13417,7 +13433,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" ht="40.5">
       <c r="A385" s="3" t="s">
         <v>1656</v>
       </c>
@@ -13465,7 +13481,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" ht="40.5">
       <c r="A391" s="3" t="s">
         <v>1662</v>
       </c>
@@ -13473,7 +13489,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" ht="40.5">
       <c r="A392" s="3" t="s">
         <v>1663</v>
       </c>
@@ -13489,7 +13505,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" ht="40.5">
       <c r="A394" s="3" t="s">
         <v>1665</v>
       </c>
@@ -13577,7 +13593,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" ht="40.5">
       <c r="A405" s="3" t="s">
         <v>1676</v>
       </c>
@@ -13641,7 +13657,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" ht="40.5">
       <c r="A413" s="3" t="s">
         <v>1684</v>
       </c>
@@ -13777,7 +13793,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" ht="40.5">
       <c r="A430" s="3" t="s">
         <v>1701</v>
       </c>
@@ -13817,7 +13833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" ht="40.5">
       <c r="A435" s="3" t="s">
         <v>1706</v>
       </c>
@@ -13953,7 +13969,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="40.5">
+    <row r="452" spans="1:2" ht="60.75">
       <c r="A452" s="3" t="s">
         <v>1723</v>
       </c>
@@ -14129,7 +14145,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" ht="40.5">
       <c r="A474" s="3" t="s">
         <v>1745</v>
       </c>
@@ -14225,7 +14241,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" ht="40.5">
       <c r="A486" s="3" t="s">
         <v>1757</v>
       </c>
@@ -14289,7 +14305,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="40.5">
+    <row r="494" spans="1:2" ht="60.75">
       <c r="A494" s="3" t="s">
         <v>1765</v>
       </c>
@@ -14643,7 +14659,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" ht="40.5">
       <c r="A539" s="3" t="s">
         <v>1810</v>
       </c>
@@ -14691,7 +14707,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="40.5">
+    <row r="545" spans="1:2" ht="60.75">
       <c r="A545" s="3" t="s">
         <v>1816</v>
       </c>
@@ -14787,7 +14803,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" ht="40.5">
       <c r="A557" s="3" t="s">
         <v>1828</v>
       </c>
@@ -14931,7 +14947,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="40.5">
+    <row r="575" spans="1:2" ht="60.75">
       <c r="A575" s="3" t="s">
         <v>1845</v>
       </c>
@@ -15275,7 +15291,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" ht="40.5">
       <c r="A618" s="3" t="s">
         <v>1888</v>
       </c>
@@ -15523,7 +15539,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" ht="40.5">
       <c r="A649" s="3" t="s">
         <v>1919</v>
       </c>
@@ -15547,7 +15563,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="652" spans="1:2" ht="40.5">
+    <row r="652" spans="1:2" ht="60.75">
       <c r="A652" s="3" t="s">
         <v>1922</v>
       </c>
@@ -15571,7 +15587,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="655" spans="1:2" ht="40.5">
+    <row r="655" spans="1:2" ht="60.75">
       <c r="A655" s="3" t="s">
         <v>1925</v>
       </c>
@@ -15587,7 +15603,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="657" spans="1:2" ht="40.5">
+    <row r="657" spans="1:2" ht="60.75">
       <c r="A657" s="3" t="s">
         <v>1927</v>
       </c>
@@ -15603,7 +15619,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="659" spans="1:2" ht="40.5">
+    <row r="659" spans="1:2" ht="60.75">
       <c r="A659" s="3" t="s">
         <v>1929</v>
       </c>
@@ -15619,7 +15635,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="661" spans="1:2" ht="40.5">
+    <row r="661" spans="1:2" ht="60.75">
       <c r="A661" s="3" t="s">
         <v>1931</v>
       </c>
@@ -15683,7 +15699,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="669" spans="1:2" ht="40.5">
+    <row r="669" spans="1:2" ht="60.75">
       <c r="A669" s="3" t="s">
         <v>1939</v>
       </c>
@@ -15850,7 +15866,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="691" spans="1:2" ht="40.5">
+    <row r="691" spans="1:2" ht="60.75">
       <c r="A691" s="3" t="s">
         <v>1961</v>
       </c>
@@ -15911,7 +15927,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" spans="1:2" ht="40.5">
       <c r="A699" s="3" t="s">
         <v>1969</v>
       </c>
@@ -15919,7 +15935,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" spans="1:2" ht="40.5">
       <c r="A700" s="3" t="s">
         <v>1970</v>
       </c>
@@ -15927,7 +15943,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" spans="1:2" ht="40.5">
       <c r="A701" s="3" t="s">
         <v>1971</v>
       </c>
@@ -15935,7 +15951,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" spans="1:2" ht="40.5">
       <c r="A702" s="3" t="s">
         <v>1972</v>
       </c>
@@ -16313,7 +16329,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="750" spans="1:2" ht="40.5">
+    <row r="750" spans="1:2" ht="60.75">
       <c r="A750" s="3" t="s">
         <v>2020</v>
       </c>
@@ -16329,7 +16345,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="752" spans="1:2" ht="40.5">
+    <row r="752" spans="1:2" ht="60.75">
       <c r="A752" s="3" t="s">
         <v>2022</v>
       </c>
@@ -16473,7 +16489,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="770" spans="1:2">
+    <row r="770" spans="1:2" ht="40.5">
       <c r="A770" s="3" t="s">
         <v>2040</v>
       </c>
@@ -16513,7 +16529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="775" spans="1:2">
+    <row r="775" spans="1:2" ht="40.5">
       <c r="A775" s="3" t="s">
         <v>2045</v>
       </c>
@@ -16529,7 +16545,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="777" spans="1:2" ht="40.5">
+    <row r="777" spans="1:2" ht="60.75">
       <c r="A777" s="3" t="s">
         <v>2047</v>
       </c>
@@ -16593,7 +16609,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:2" ht="40.5">
       <c r="A785" s="3" t="s">
         <v>2055</v>
       </c>
@@ -16814,7 +16830,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="813" spans="1:2" ht="40.5">
+    <row r="813" spans="1:2" ht="60.75">
       <c r="A813" s="3" t="s">
         <v>2083</v>
       </c>
@@ -17022,7 +17038,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="839" spans="1:2" ht="40.5">
+    <row r="839" spans="1:2" ht="60.75">
       <c r="A839" s="3" t="s">
         <v>2109</v>
       </c>
@@ -17038,7 +17054,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="841" spans="1:2" ht="40.5">
+    <row r="841" spans="1:2" ht="60.75">
       <c r="A841" s="3" t="s">
         <v>2111</v>
       </c>
@@ -17054,7 +17070,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="843" spans="1:2" ht="40.5">
+    <row r="843" spans="1:2" ht="60.75">
       <c r="A843" s="3" t="s">
         <v>2113</v>
       </c>
@@ -17102,7 +17118,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="849" spans="1:2" ht="40.5">
+    <row r="849" spans="1:2" ht="60.75">
       <c r="A849" s="3" t="s">
         <v>2119</v>
       </c>
@@ -17150,7 +17166,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="855" spans="1:2" ht="40.5">
+    <row r="855" spans="1:2" ht="60.75">
       <c r="A855" s="3" t="s">
         <v>2125</v>
       </c>
@@ -17158,7 +17174,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="856" spans="1:2" ht="40.5">
+    <row r="856" spans="1:2" ht="60.75">
       <c r="A856" s="3" t="s">
         <v>2126</v>
       </c>
@@ -17174,7 +17190,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="858" spans="1:2" ht="40.5">
+    <row r="858" spans="1:2" ht="60.75">
       <c r="A858" s="3" t="s">
         <v>2128</v>
       </c>
@@ -17182,7 +17198,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="859" spans="1:2" ht="40.5">
+    <row r="859" spans="1:2" ht="60.75">
       <c r="A859" s="3" t="s">
         <v>2129</v>
       </c>
@@ -17294,7 +17310,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="873" spans="1:2">
+    <row r="873" spans="1:2" ht="40.5">
       <c r="A873" s="3" t="s">
         <v>2142</v>
       </c>
@@ -17318,7 +17334,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="876" spans="1:2">
+    <row r="876" spans="1:2" ht="40.5">
       <c r="A876" s="3" t="s">
         <v>2145</v>
       </c>
@@ -17798,7 +17814,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="936" spans="1:2">
+    <row r="936" spans="1:2" ht="40.5">
       <c r="A936" s="3" t="s">
         <v>2205</v>
       </c>
@@ -17870,7 +17886,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="945" spans="1:2">
+    <row r="945" spans="1:2" ht="40.5">
       <c r="A945" s="3" t="s">
         <v>2214</v>
       </c>
@@ -17878,7 +17894,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="946" spans="1:2">
+    <row r="946" spans="1:2" ht="40.5">
       <c r="A946" s="3" t="s">
         <v>2215</v>
       </c>
@@ -17958,7 +17974,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="956" spans="1:2">
+    <row r="956" spans="1:2" ht="40.5">
       <c r="A956" s="3" t="s">
         <v>2225</v>
       </c>
@@ -18094,7 +18110,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="973" spans="1:2" s="5" customFormat="1">
+    <row r="973" spans="1:2" s="5" customFormat="1" ht="40.5">
       <c r="A973" s="3" t="s">
         <v>2241</v>
       </c>
@@ -18190,7 +18206,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="985" spans="1:2" ht="60.75">
+    <row r="985" spans="1:2" ht="81">
       <c r="A985" s="3" t="s">
         <v>2253</v>
       </c>
@@ -18416,7 +18432,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" ht="40.5">
+    <row r="1014" spans="1:2" ht="60.75">
       <c r="A1014" s="3" t="s">
         <v>2282</v>
       </c>
@@ -18488,7 +18504,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" ht="40.5">
+    <row r="1023" spans="1:2" ht="60.75">
       <c r="A1023" s="3" t="s">
         <v>2290</v>
       </c>
@@ -18520,7 +18536,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="1027" spans="1:2">
+    <row r="1027" spans="1:2" ht="40.5">
       <c r="A1027" s="3" t="s">
         <v>2294</v>
       </c>
@@ -18560,7 +18576,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" ht="40.5">
+    <row r="1032" spans="1:2" ht="60.75">
       <c r="A1032" s="3" t="s">
         <v>2299</v>
       </c>
@@ -18696,7 +18712,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="1049" spans="1:2">
+    <row r="1049" spans="1:2" ht="40.5">
       <c r="A1049" s="3" t="s">
         <v>2316</v>
       </c>
@@ -18704,7 +18720,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="1050" spans="1:2">
+    <row r="1050" spans="1:2" ht="40.5">
       <c r="A1050" s="3" t="s">
         <v>2317</v>
       </c>
@@ -18712,7 +18728,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="1051" spans="1:2">
+    <row r="1051" spans="1:2" ht="40.5">
       <c r="A1051" s="3" t="s">
         <v>2318</v>
       </c>
@@ -18752,7 +18768,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="1056" spans="1:2">
+    <row r="1056" spans="1:2" ht="40.5">
       <c r="A1056" s="3" t="s">
         <v>2323</v>
       </c>
@@ -18824,7 +18840,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="1065" spans="1:2">
+    <row r="1065" spans="1:2" ht="40.5">
       <c r="A1065" s="3" t="s">
         <v>2332</v>
       </c>
@@ -18888,7 +18904,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1073" spans="1:2">
+    <row r="1073" spans="1:2" ht="40.5">
       <c r="A1073" s="3" t="s">
         <v>2340</v>
       </c>
@@ -18952,7 +18968,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="1081" spans="1:2">
+    <row r="1081" spans="1:2" ht="40.5">
       <c r="A1081" s="3" t="s">
         <v>2348</v>
       </c>
@@ -18976,7 +18992,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="1084" spans="1:2">
+    <row r="1084" spans="1:2" ht="40.5">
       <c r="A1084" s="3" t="s">
         <v>2351</v>
       </c>
@@ -19032,7 +19048,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1091" spans="1:2" ht="40.5">
+    <row r="1091" spans="1:2" ht="60.75">
       <c r="A1091" s="3" t="s">
         <v>2358</v>
       </c>
@@ -19386,7 +19402,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="1136" spans="1:2">
+    <row r="1136" spans="1:2" ht="40.5">
       <c r="A1136" s="3" t="s">
         <v>2403</v>
       </c>
@@ -19426,7 +19442,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="1141" spans="1:2">
+    <row r="1141" spans="1:2" ht="40.5">
       <c r="A1141" s="3" t="s">
         <v>2408</v>
       </c>
@@ -19434,7 +19450,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1142" spans="1:2">
+    <row r="1142" spans="1:2" ht="40.5">
       <c r="A1142" s="3" t="s">
         <v>2409</v>
       </c>
@@ -19442,7 +19458,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="1143" spans="1:2">
+    <row r="1143" spans="1:2" ht="40.5">
       <c r="A1143" s="3" t="s">
         <v>2410</v>
       </c>
@@ -20004,7 +20020,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="1214" spans="1:2">
+    <row r="1214" spans="1:2" ht="40.5">
       <c r="A1214" s="3" t="s">
         <v>2481</v>
       </c>
@@ -20257,7 +20273,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="1246" spans="1:2">
+    <row r="1246" spans="1:2" ht="40.5">
       <c r="A1246" s="3" t="s">
         <v>2513</v>
       </c>
@@ -20401,7 +20417,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="1264" spans="1:2">
+    <row r="1264" spans="1:2" ht="40.5">
       <c r="A1264" s="3" t="s">
         <v>2531</v>
       </c>
@@ -20425,7 +20441,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="1267" spans="1:2">
+    <row r="1267" spans="1:2" ht="40.5">
       <c r="A1267" s="3" t="s">
         <v>2534</v>
       </c>
@@ -20441,7 +20457,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="1269" spans="1:2" ht="40.5">
+    <row r="1269" spans="1:2" ht="60.75">
       <c r="A1269" s="3" t="s">
         <v>2536</v>
       </c>
@@ -20449,7 +20465,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="1270" spans="1:2">
+    <row r="1270" spans="1:2" ht="40.5">
       <c r="A1270" s="3" t="s">
         <v>2537</v>
       </c>
@@ -20593,7 +20609,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="1288" spans="1:2" ht="40.5">
+    <row r="1288" spans="1:2" ht="60.75">
       <c r="A1288" s="3" t="s">
         <v>2555</v>
       </c>
@@ -20625,7 +20641,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1292" spans="1:2" ht="40.5">
+    <row r="1292" spans="1:2" ht="60.75">
       <c r="A1292" s="3" t="s">
         <v>2559</v>
       </c>
@@ -20785,7 +20801,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="1312" spans="1:2" ht="40.5">
+    <row r="1312" spans="1:2" ht="60.75">
       <c r="A1312" s="3" t="s">
         <v>2579</v>
       </c>
@@ -20825,7 +20841,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1317" spans="1:2">
+    <row r="1317" spans="1:2" ht="40.5">
       <c r="A1317" s="3" t="s">
         <v>2584</v>
       </c>
@@ -20881,7 +20897,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="1324" spans="1:2" ht="40.5">
+    <row r="1324" spans="1:2" ht="60.75">
       <c r="A1324" s="3" t="s">
         <v>2591</v>
       </c>
@@ -20905,7 +20921,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="1327" spans="1:2" ht="40.5">
+    <row r="1327" spans="1:2" ht="60.75">
       <c r="A1327" s="3" t="s">
         <v>2594</v>
       </c>
@@ -20966,7 +20982,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="1335" spans="1:2">
+    <row r="1335" spans="1:2" ht="40.5">
       <c r="A1335" s="3" t="s">
         <v>2602</v>
       </c>
@@ -20998,7 +21014,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="1339" spans="1:2" ht="40.5">
+    <row r="1339" spans="1:2" ht="60.75">
       <c r="A1339" s="3" t="s">
         <v>2606</v>
       </c>
@@ -21062,7 +21078,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="1347" spans="1:2">
+    <row r="1347" spans="1:2" ht="40.5">
       <c r="A1347" s="3" t="s">
         <v>2614</v>
       </c>
@@ -21110,7 +21126,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="1353" spans="1:2" ht="40.5">
+    <row r="1353" spans="1:2" ht="60.75">
       <c r="A1353" s="3" t="s">
         <v>2620</v>
       </c>
@@ -21190,7 +21206,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="1363" spans="1:2" ht="40.5">
+    <row r="1363" spans="1:2" ht="60.75">
       <c r="A1363" s="3" t="s">
         <v>2630</v>
       </c>
@@ -21262,7 +21278,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="1372" spans="1:2" ht="40.5">
+    <row r="1372" spans="1:2" ht="60.75">
       <c r="A1372" s="3" t="s">
         <v>2639</v>
       </c>
@@ -21550,7 +21566,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="1408" spans="1:2">
+    <row r="1408" spans="1:2" ht="40.5">
       <c r="A1408" s="3" t="s">
         <v>2675</v>
       </c>
@@ -21582,7 +21598,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="1412" spans="1:2">
+    <row r="1412" spans="1:2" ht="40.5">
       <c r="A1412" s="3" t="s">
         <v>2679</v>
       </c>
@@ -21606,7 +21622,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="1415" spans="1:2" ht="40.5">
+    <row r="1415" spans="1:2" ht="60.75">
       <c r="A1415" s="3" t="s">
         <v>2682</v>
       </c>
@@ -21632,7 +21648,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="1419" spans="1:2">
+    <row r="1419" spans="1:2" ht="40.5">
       <c r="A1419" s="3" t="s">
         <v>2686</v>
       </c>
@@ -21664,7 +21680,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="1423" spans="1:2">
+    <row r="1423" spans="1:2" ht="40.5">
       <c r="A1423" s="3" t="s">
         <v>2690</v>
       </c>
@@ -21752,7 +21768,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="1434" spans="1:2">
+    <row r="1434" spans="1:2" ht="40.5">
       <c r="A1434" s="3" t="s">
         <v>2701</v>
       </c>
@@ -22088,6 +22104,22 @@
       </c>
       <c r="B1476" s="4" t="s">
         <v>2778</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2">
+      <c r="A1477" s="3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1477" s="4" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2">
+      <c r="A1478" s="3" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B1478" s="4" t="s">
+        <v>2782</v>
       </c>
     </row>
   </sheetData>
